--- a/Jogos_do_Dia/2022-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -695,13 +695,13 @@
         <v>3.59</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD2" t="n">
         <v>1.26</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.55</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>4.12</v>
       </c>
       <c r="I3" t="n">
         <v>1.16</v>
@@ -757,10 +757,10 @@
         <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="L3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M3" t="n">
         <v>2.56</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE3" t="n">
         <v>1.75</v>
@@ -823,7 +823,7 @@
         <v>2.18</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
@@ -983,10 +983,10 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1025,13 +1025,13 @@
         <v>3.01</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD5" t="n">
         <v>1.2</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE6" t="n">
         <v>1.54</v>
@@ -1156,7 +1156,7 @@
         <v>2.34</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="N7" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1245,16 +1245,16 @@
         <v>3.78</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE7" t="n">
         <v>1.34</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.83</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>10.35</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>3.74</v>
       </c>
       <c r="M8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE8" t="n">
         <v>1.53</v>
@@ -1376,7 +1376,7 @@
         <v>2.34</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="H3" t="n">
-        <v>4.12</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.16</v>
@@ -757,16 +757,16 @@
         <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M3" t="n">
-        <v>2.56</v>
+        <v>2.81</v>
       </c>
       <c r="N3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O3" t="n">
         <v>1.71</v>
@@ -805,13 +805,13 @@
         <v>2.72</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD3" t="n">
         <v>1.38</v>
@@ -826,7 +826,7 @@
         <v>3.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,7 +1093,7 @@
         <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="N6" t="n">
         <v>1.57</v>
@@ -1135,13 +1135,13 @@
         <v>3.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AD6" t="n">
         <v>1.25</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="G8" t="n">
-        <v>4.83</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>10.35</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1313,10 +1313,10 @@
         <v>3.74</v>
       </c>
       <c r="M8" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
@@ -1355,13 +1355,13 @@
         <v>2.84</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AD8" t="n">
         <v>1.25</v>
